--- a/04課題管理/課題管理表.xlsx
+++ b/04課題管理/課題管理表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Git\Project_WebAniMatchApp20200126\04課題管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825CA6F1-77AD-418A-8699-A2798591C224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A209D4E-1405-462D-A4C7-F33CC0547557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="説明" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -564,6 +564,61 @@
     </rPh>
     <rPh sb="89" eb="91">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題以下ファイル
+regist.html
+search-owner.html
+search-trimmer.html</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都道府県市町村のセレクトボックス作成</t>
+    <rPh sb="0" eb="4">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シチョウソン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セレクトボックスについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>search画面作成後、方法について、調査し作成予定</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1083,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE857E7-0D6F-4FA4-95A6-10EE8F3B7B89}">
   <dimension ref="B2:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -1193,13 +1248,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48ACF6C-5FC6-41EB-BA65-9A1CFA3F7F5D}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.625" customWidth="1"/>
     <col min="5" max="5" width="58.125" customWidth="1"/>
     <col min="6" max="6" width="44.625" customWidth="1"/>
@@ -1322,16 +1377,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
+      <c r="B7" s="3">
+        <v>43916</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">

--- a/04課題管理/課題管理表.xlsx
+++ b/04課題管理/課題管理表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Git\Project_WebAniMatchApp20200126\04課題管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A209D4E-1405-462D-A4C7-F33CC0547557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93762E2-C1E6-4988-A577-DEF609C72B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
+    <workbookView xWindow="2070" yWindow="17880" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="説明" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -568,8 +568,49 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>都道府県市町村のセレクトボックス作成</t>
+    <rPh sb="0" eb="4">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シチョウソン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セレクトボックスについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>search画面作成後、方法について、調査し作成予定</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>課題以下ファイル
-regist.html
 search-owner.html
 search-trimmer.html</t>
     <rPh sb="0" eb="2">
@@ -581,44 +622,112 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>都道府県市町村のセレクトボックス作成</t>
+    <t>郵便番号、都道府県、市区町村入力フォーム再検討</t>
     <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
       <t>トドウフケン</t>
     </rPh>
-    <rPh sb="4" eb="7">
-      <t>シチョウソン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セレクトボックスについて</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>search画面作成後、方法について、調査し作成予定</t>
+    <rPh sb="10" eb="12">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>サイケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下郵便番号APIを使用
+http://zipcloud.ibsnet.co.jp/doc/api</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号、都道府県、市区町村入力フォームで一度入力し、再度都道府県、市区町村を変更した場合、郵便番号と整合がとれない</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="46" eb="50">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバー側で入力内容を保存する前に郵便番号と都道府県市区町村の整合性がとれているかチェック</t>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
     <rPh sb="6" eb="8">
-      <t>ガメン</t>
+      <t>ニュウリョク</t>
     </rPh>
     <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヨテイ</t>
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>セイゴウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1377,7 +1486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1385,42 +1494,66 @@
         <v>43916</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="9">
+        <v>43919</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="2"/>
+      <c r="B9" s="3">
+        <v>43919</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">

--- a/04課題管理/課題管理表.xlsx
+++ b/04課題管理/課題管理表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Git\Project_WebAniMatchApp20200126\04課題管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93762E2-C1E6-4988-A577-DEF609C72B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D928BFCF-E969-4180-AA02-D63D34760340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="17880" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="説明" sheetId="2" r:id="rId1"/>
@@ -568,45 +568,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>都道府県市町村のセレクトボックス作成</t>
-    <rPh sb="0" eb="4">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>シチョウソン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>セレクトボックスについて</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>search画面作成後、方法について、調査し作成予定</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヨテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -728,6 +690,65 @@
     </rPh>
     <rPh sb="31" eb="34">
       <t>セイゴウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都道府県市町村のセレクトボックス作成し、都道府県が入力されたとき、その都道府県の市区町村を表示できるようにする</t>
+    <rPh sb="0" eb="4">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シチョウソン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トドウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フケン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一旦、画面作成完了後方法について再検討</t>
+    <rPh sb="0" eb="2">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>サイケントウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1494,16 +1515,16 @@
         <v>43916</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
@@ -1523,10 +1544,10 @@
         <v>34</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>17</v>
@@ -1546,10 +1567,10 @@
         <v>34</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>

--- a/04課題管理/課題管理表.xlsx
+++ b/04課題管理/課題管理表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Git\Project_WebAniMatchApp20200126\04課題管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\AniMatchProject-20200126\04課題管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D928BFCF-E969-4180-AA02-D63D34760340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC7E57E-E7F8-40F8-B0FF-42E4B5EFA0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="説明" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -749,6 +749,78 @@
     </rPh>
     <rPh sb="16" eb="19">
       <t>サイケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面デザインについて</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題以下ファイル
+search-owner.html</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索部分の折り返しの表示タイミングが早い
+プラグインを実装している部分のデザインを保つため、現在のブレイクポイントで折り返し</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>タモ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラグイン部分のデザインを調整できないか調査</t>
+    <rPh sb="5" eb="7">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チョウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1270,99 +1342,99 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>38</v>
       </c>
@@ -1380,23 +1452,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" customWidth="1"/>
-    <col min="5" max="5" width="58.125" customWidth="1"/>
-    <col min="6" max="6" width="44.625" customWidth="1"/>
+    <col min="4" max="4" width="28.59765625" customWidth="1"/>
+    <col min="5" max="5" width="58.09765625" customWidth="1"/>
+    <col min="6" max="6" width="44.59765625" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
@@ -1419,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1440,7 +1512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
@@ -1461,7 +1533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1484,7 +1556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1507,7 +1579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1530,7 +1602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -1553,7 +1625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1576,18 +1648,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="3">
+        <v>43925</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1598,7 +1682,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1609,7 +1693,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1620,7 +1704,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1630,7 +1714,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1641,7 +1725,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1652,7 +1736,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1663,7 +1747,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1674,7 +1758,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1685,7 +1769,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1696,7 +1780,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -1707,7 +1791,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1718,7 +1802,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1729,7 +1813,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1740,7 +1824,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1751,7 +1835,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -1762,7 +1846,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -1773,7 +1857,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -1784,7 +1868,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -1795,7 +1879,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -1806,7 +1890,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -1817,7 +1901,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -1828,7 +1912,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -1839,7 +1923,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -1850,7 +1934,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -1861,7 +1945,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -1872,7 +1956,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -1883,7 +1967,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -1894,7 +1978,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -1905,7 +1989,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -1916,7 +2000,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -1927,7 +2011,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -1938,7 +2022,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -1949,7 +2033,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -1960,7 +2044,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -1971,7 +2055,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -1982,7 +2066,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -1993,7 +2077,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -2004,7 +2088,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -2015,7 +2099,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -2026,7 +2110,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -2037,7 +2121,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -2048,7 +2132,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>49</v>
       </c>
@@ -2059,7 +2143,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>50</v>
       </c>
@@ -2070,7 +2154,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>51</v>
       </c>
@@ -2081,7 +2165,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>52</v>
       </c>
@@ -2092,7 +2176,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>53</v>
       </c>
@@ -2103,7 +2187,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>54</v>
       </c>
@@ -2114,7 +2198,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>55</v>
       </c>
@@ -2125,7 +2209,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -2136,7 +2220,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -2147,7 +2231,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -2158,7 +2242,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -2169,7 +2253,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -2180,7 +2264,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>61</v>
       </c>
@@ -2191,7 +2275,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>62</v>
       </c>
@@ -2202,7 +2286,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>63</v>
       </c>
@@ -2213,7 +2297,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>64</v>
       </c>
@@ -2224,7 +2308,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>65</v>
       </c>
@@ -2235,7 +2319,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>66</v>
       </c>
@@ -2246,7 +2330,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>67</v>
       </c>
@@ -2257,7 +2341,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>68</v>
       </c>
@@ -2268,7 +2352,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>69</v>
       </c>
@@ -2279,7 +2363,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>70</v>
       </c>
@@ -2290,7 +2374,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>71</v>
       </c>
@@ -2301,7 +2385,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>72</v>
       </c>
@@ -2312,7 +2396,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>73</v>
       </c>
@@ -2323,7 +2407,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>74</v>
       </c>
@@ -2334,7 +2418,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -2345,7 +2429,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>76</v>
       </c>
@@ -2356,7 +2440,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
         <v>77</v>
       </c>
@@ -2367,7 +2451,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
         <v>78</v>
       </c>
@@ -2378,7 +2462,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>79</v>
       </c>
@@ -2389,7 +2473,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>80</v>
       </c>
@@ -2400,7 +2484,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>81</v>
       </c>
@@ -2411,7 +2495,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>82</v>
       </c>
@@ -2422,7 +2506,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
         <v>83</v>
       </c>
@@ -2433,7 +2517,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
         <v>84</v>
       </c>
@@ -2444,7 +2528,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>85</v>
       </c>
@@ -2455,7 +2539,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>86</v>
       </c>
@@ -2466,7 +2550,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>87</v>
       </c>
@@ -2477,7 +2561,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>88</v>
       </c>
@@ -2488,7 +2572,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>89</v>
       </c>
@@ -2499,7 +2583,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>90</v>
       </c>
@@ -2510,7 +2594,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>91</v>
       </c>
@@ -2521,7 +2605,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>92</v>
       </c>
@@ -2532,7 +2616,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>93</v>
       </c>
@@ -2543,7 +2627,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>94</v>
       </c>
@@ -2554,7 +2638,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>95</v>
       </c>
@@ -2565,7 +2649,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>96</v>
       </c>
@@ -2576,7 +2660,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>97</v>
       </c>
@@ -2587,7 +2671,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
         <v>98</v>
       </c>
@@ -2598,7 +2682,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>99</v>
       </c>
@@ -2609,7 +2693,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>100</v>
       </c>
@@ -2639,9 +2723,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>7</v>
       </c>

--- a/04課題管理/課題管理表.xlsx
+++ b/04課題管理/課題管理表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\AniMatchProject-20200126\04課題管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC7E57E-E7F8-40F8-B0FF-42E4B5EFA0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB35066-162A-4B8F-80DC-C4D04F463E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
+    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="説明" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -821,6 +821,51 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cssファイルについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題以下ファイル
+login.css
+main.css
+regist.css
+search.css
+dmessage.css</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発後期、cssファイルを一つにまとめる</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発後期cssファイルを統合し、リファクタリングする</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1671,16 +1716,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="108" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="2"/>
+      <c r="B11" s="3">
+        <v>43926</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2">

--- a/04課題管理/課題管理表.xlsx
+++ b/04課題管理/課題管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\AniMatchProject-20200126\04課題管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB35066-162A-4B8F-80DC-C4D04F463E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E2BA63-5E03-4EDC-A300-5793929F5171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -866,6 +866,50 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真ん中右の検索結果部分について、サーバー言語実装後微調整</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ビチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抽出するデータに合わせて</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1739,16 +1783,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="2"/>
+      <c r="B12" s="3">
+        <v>43928</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2">

--- a/04課題管理/課題管理表.xlsx
+++ b/04課題管理/課題管理表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\AniMatchProject-20200126\04課題管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E2BA63-5E03-4EDC-A300-5793929F5171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B9C1E0-5F21-4AEB-A72C-23D3AB494BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
+    <workbookView xWindow="-28920" yWindow="-1785" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="説明" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -308,16 +308,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題管理表</t>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -910,6 +900,54 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絞り込み条件で場所がとられすぎているため、検索後折りたたむなど工夫する</t>
+    <rPh sb="0" eb="1">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>クフウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバー側の処理を組んだときに再検討</t>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>サイケントウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1520,12 +1558,12 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1554,24 +1592,24 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>2</v>
@@ -1630,16 +1668,16 @@
         <v>43906</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
@@ -1653,16 +1691,16 @@
         <v>43906</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
@@ -1676,16 +1714,16 @@
         <v>43916</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="E7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
@@ -1699,16 +1737,16 @@
         <v>43919</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>17</v>
@@ -1722,16 +1760,16 @@
         <v>43919</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
@@ -1745,16 +1783,16 @@
         <v>43925</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
@@ -1768,16 +1806,16 @@
         <v>43926</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
@@ -1791,31 +1829,43 @@
         <v>43928</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="2"/>
+      <c r="B13" s="3">
+        <v>43929</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">

--- a/04課題管理/課題管理表.xlsx
+++ b/04課題管理/課題管理表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\AniMatchProject-20200126\04課題管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B9C1E0-5F21-4AEB-A72C-23D3AB494BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4ABE75-731C-4B44-9272-76FFEF1FF06A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1785" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="説明" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -486,74 +486,6 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>セイギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現在考えている案として、添付する画像をリサイズし、高さを制御しようと考えている
-検索結果画面に添付画像をどのように表示するかもかんけいしてくるため、検索結果画面デザイン作成完了後修正</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>テンプ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>テンプ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -948,6 +880,182 @@
     </rPh>
     <rPh sb="15" eb="18">
       <t>サイケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面サイズについて</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題以下ファイル
+details-owner.html
+details-trimmer.html</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索詳細画面の左側画像のサイズを制御</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在考えている案として、添付する画像をリサイズし、高さを制御しようと考えている
+検索結果画面に添付画像をどのように表示するかもかんけいしてくるため、検索結果画面デザイン作成完了後修正
+課題管理番号10も参照</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在考えている案として、表示する画像をリサイズし、高さを制御しようと考えている
+検索結果画面デザイン作成完了後修正
+課題管理番号2も参照</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1469,99 +1577,99 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>37</v>
       </c>
@@ -1579,23 +1687,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.59765625" customWidth="1"/>
-    <col min="5" max="5" width="58.09765625" customWidth="1"/>
-    <col min="6" max="6" width="44.59765625" customWidth="1"/>
+    <col min="4" max="4" width="28.625" customWidth="1"/>
+    <col min="5" max="5" width="58.125" customWidth="1"/>
+    <col min="6" max="6" width="44.625" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
@@ -1618,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1639,7 +1747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
@@ -1660,7 +1768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1683,7 +1791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1700,13 +1808,13 @@
         <v>39</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1714,22 +1822,22 @@
         <v>43916</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="E7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -1743,16 +1851,16 @@
         <v>33</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1766,16 +1874,16 @@
         <v>33</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1783,22 +1891,22 @@
         <v>43925</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" ht="108" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1806,22 +1914,22 @@
         <v>43926</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1829,22 +1937,22 @@
         <v>43928</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1852,32 +1960,45 @@
         <v>43929</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="3">
+        <v>43939</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1888,7 +2009,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1899,7 +2020,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1910,7 +2031,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1921,7 +2042,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1932,7 +2053,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1943,7 +2064,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -1954,7 +2075,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1965,7 +2086,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1976,7 +2097,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1987,7 +2108,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1998,7 +2119,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -2009,7 +2130,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -2020,7 +2141,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -2031,7 +2152,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -2042,7 +2163,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -2053,7 +2174,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -2064,7 +2185,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -2075,7 +2196,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -2086,7 +2207,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -2097,7 +2218,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -2108,7 +2229,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -2119,7 +2240,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2130,7 +2251,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -2141,7 +2262,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -2152,7 +2273,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -2163,7 +2284,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -2174,7 +2295,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -2185,7 +2306,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -2196,7 +2317,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -2207,7 +2328,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -2218,7 +2339,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -2229,7 +2350,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -2240,7 +2361,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -2251,7 +2372,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -2262,7 +2383,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -2273,7 +2394,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -2284,7 +2405,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -2295,7 +2416,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>49</v>
       </c>
@@ -2306,7 +2427,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>50</v>
       </c>
@@ -2317,7 +2438,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>51</v>
       </c>
@@ -2328,7 +2449,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>52</v>
       </c>
@@ -2339,7 +2460,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>53</v>
       </c>
@@ -2350,7 +2471,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>54</v>
       </c>
@@ -2361,7 +2482,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>55</v>
       </c>
@@ -2372,7 +2493,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -2383,7 +2504,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -2394,7 +2515,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -2405,7 +2526,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -2416,7 +2537,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -2427,7 +2548,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>61</v>
       </c>
@@ -2438,7 +2559,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>62</v>
       </c>
@@ -2449,7 +2570,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>63</v>
       </c>
@@ -2460,7 +2581,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>64</v>
       </c>
@@ -2471,7 +2592,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>65</v>
       </c>
@@ -2482,7 +2603,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>66</v>
       </c>
@@ -2493,7 +2614,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>67</v>
       </c>
@@ -2504,7 +2625,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>68</v>
       </c>
@@ -2515,7 +2636,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>69</v>
       </c>
@@ -2526,7 +2647,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>70</v>
       </c>
@@ -2537,7 +2658,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>71</v>
       </c>
@@ -2548,7 +2669,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>72</v>
       </c>
@@ -2559,7 +2680,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>73</v>
       </c>
@@ -2570,7 +2691,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>74</v>
       </c>
@@ -2581,7 +2702,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -2592,7 +2713,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>76</v>
       </c>
@@ -2603,7 +2724,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>77</v>
       </c>
@@ -2614,7 +2735,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>78</v>
       </c>
@@ -2625,7 +2746,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>79</v>
       </c>
@@ -2636,7 +2757,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>80</v>
       </c>
@@ -2647,7 +2768,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>81</v>
       </c>
@@ -2658,7 +2779,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>82</v>
       </c>
@@ -2669,7 +2790,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>83</v>
       </c>
@@ -2680,7 +2801,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>84</v>
       </c>
@@ -2691,7 +2812,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>85</v>
       </c>
@@ -2702,7 +2823,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>86</v>
       </c>
@@ -2713,7 +2834,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>87</v>
       </c>
@@ -2724,7 +2845,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>88</v>
       </c>
@@ -2735,7 +2856,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>89</v>
       </c>
@@ -2746,7 +2867,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>90</v>
       </c>
@@ -2757,7 +2878,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>91</v>
       </c>
@@ -2768,7 +2889,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>92</v>
       </c>
@@ -2779,7 +2900,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>93</v>
       </c>
@@ -2790,7 +2911,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>94</v>
       </c>
@@ -2801,7 +2922,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>95</v>
       </c>
@@ -2812,7 +2933,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>96</v>
       </c>
@@ -2823,7 +2944,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>97</v>
       </c>
@@ -2834,7 +2955,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>98</v>
       </c>
@@ -2845,7 +2966,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>99</v>
       </c>
@@ -2856,7 +2977,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>100</v>
       </c>
@@ -2886,9 +3007,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>7</v>
       </c>

--- a/04課題管理/課題管理表.xlsx
+++ b/04課題管理/課題管理表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\AniMatchProject-20200126\04課題管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4ABE75-731C-4B44-9272-76FFEF1FF06A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D985B62-B7B4-4357-8EA4-3FDD8CAA49BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="説明" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1056,6 +1056,65 @@
     </rPh>
     <rPh sb="55" eb="57">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題以下ファイル
+dmessage.html</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイレクトメッセージの通知について</t>
+    <rPh sb="11" eb="13">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイレクトメッセージを受信したとき、どのように通知を受信するか検討</t>
+    <rPh sb="11" eb="13">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一旦すべて画面デザイン作成完了後通知について検討</t>
+    <rPh sb="0" eb="2">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケントウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1691,7 +1750,7 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.625" customWidth="1"/>
     <col min="5" max="5" width="58.125" customWidth="1"/>
     <col min="6" max="6" width="44.625" customWidth="1"/>
@@ -1998,16 +2057,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
+      <c r="B15" s="3">
+        <v>43957</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">

--- a/04課題管理/課題管理表.xlsx
+++ b/04課題管理/課題管理表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\AniMatchProject-20200126\04課題管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D985B62-B7B4-4357-8EA4-3FDD8CAA49BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF0823F-E720-403C-AF7D-694E560AF85D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{98885F6F-728E-4E8F-832B-3D5A628A8BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="説明" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1115,6 +1115,93 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイレクトメッセージの添付画像表示について</t>
+    <rPh sb="11" eb="13">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>添付した画像の開き方について検討</t>
+    <rPh sb="0" eb="2">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一旦、bootstrapのモーダルウィンドウで実装</t>
+    <rPh sb="0" eb="2">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイレクトメッセージの添付画像拡張子について</t>
+    <rPh sb="11" eb="13">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カクチョウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイレクトメッセージの添付画像拡張子について、検討</t>
+    <rPh sb="11" eb="13">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カクチョウシ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一旦、.png、.jpg、.gif、.jpegの拡張子が添付できるように実装</t>
+    <rPh sb="0" eb="2">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>カクチョウシ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1636,99 +1723,99 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>37</v>
       </c>
@@ -1746,23 +1833,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" customWidth="1"/>
-    <col min="5" max="5" width="58.125" customWidth="1"/>
-    <col min="6" max="6" width="44.625" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.59765625" customWidth="1"/>
+    <col min="5" max="5" width="58.09765625" customWidth="1"/>
+    <col min="6" max="6" width="44.59765625" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
@@ -1785,7 +1872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1806,7 +1893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
@@ -1827,7 +1914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1850,7 +1937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="108" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1873,7 +1960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1896,7 +1983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -1919,7 +2006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1942,7 +2029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1965,7 +2052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="108" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1988,7 +2075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -2011,7 +2098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -2034,7 +2121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2057,7 +2144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -2080,29 +2167,53 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="3">
+        <v>43972</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="3">
+        <v>43972</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -2113,7 +2224,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -2124,7 +2235,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -2135,7 +2246,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -2146,7 +2257,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -2157,7 +2268,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -2168,7 +2279,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -2179,7 +2290,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -2190,7 +2301,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -2201,7 +2312,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -2212,7 +2323,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -2223,7 +2334,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -2234,7 +2345,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -2245,7 +2356,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -2256,7 +2367,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -2267,7 +2378,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -2278,7 +2389,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -2289,7 +2400,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -2300,7 +2411,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -2311,7 +2422,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2322,7 +2433,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -2333,7 +2444,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -2344,7 +2455,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -2355,7 +2466,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -2366,7 +2477,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -2377,7 +2488,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -2388,7 +2499,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -2399,7 +2510,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -2410,7 +2521,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -2421,7 +2532,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -2432,7 +2543,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -2443,7 +2554,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -2454,7 +2565,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -2465,7 +2576,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -2476,7 +2587,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -2487,7 +2598,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>49</v>
       </c>
@@ -2498,7 +2609,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>50</v>
       </c>
@@ -2509,7 +2620,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>51</v>
       </c>
@@ -2520,7 +2631,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>52</v>
       </c>
@@ -2531,7 +2642,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>53</v>
       </c>
@@ -2542,7 +2653,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>54</v>
       </c>
@@ -2553,7 +2664,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>55</v>
       </c>
@@ -2564,7 +2675,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -2575,7 +2686,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -2586,7 +2697,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -2597,7 +2708,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -2608,7 +2719,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -2619,7 +2730,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>61</v>
       </c>
@@ -2630,7 +2741,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>62</v>
       </c>
@@ -2641,7 +2752,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>63</v>
       </c>
@@ -2652,7 +2763,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>64</v>
       </c>
@@ -2663,7 +2774,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>65</v>
       </c>
@@ -2674,7 +2785,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>66</v>
       </c>
@@ -2685,7 +2796,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>67</v>
       </c>
@@ -2696,7 +2807,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>68</v>
       </c>
@@ -2707,7 +2818,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>69</v>
       </c>
@@ -2718,7 +2829,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>70</v>
       </c>
@@ -2729,7 +2840,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>71</v>
       </c>
@@ -2740,7 +2851,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>72</v>
       </c>
@@ -2751,7 +2862,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>73</v>
       </c>
@@ -2762,7 +2873,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>74</v>
       </c>
@@ -2773,7 +2884,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -2784,7 +2895,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>76</v>
       </c>
@@ -2795,7 +2906,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
         <v>77</v>
       </c>
@@ -2806,7 +2917,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
         <v>78</v>
       </c>
@@ -2817,7 +2928,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>79</v>
       </c>
@@ -2828,7 +2939,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>80</v>
       </c>
@@ -2839,7 +2950,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>81</v>
       </c>
@@ -2850,7 +2961,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>82</v>
       </c>
@@ -2861,7 +2972,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
         <v>83</v>
       </c>
@@ -2872,7 +2983,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
         <v>84</v>
       </c>
@@ -2883,7 +2994,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>85</v>
       </c>
@@ -2894,7 +3005,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>86</v>
       </c>
@@ -2905,7 +3016,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>87</v>
       </c>
@@ -2916,7 +3027,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>88</v>
       </c>
@@ -2927,7 +3038,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>89</v>
       </c>
@@ -2938,7 +3049,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>90</v>
       </c>
@@ -2949,7 +3060,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>91</v>
       </c>
@@ -2960,7 +3071,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>92</v>
       </c>
@@ -2971,7 +3082,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>93</v>
       </c>
@@ -2982,7 +3093,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>94</v>
       </c>
@@ -2993,7 +3104,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>95</v>
       </c>
@@ -3004,7 +3115,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>96</v>
       </c>
@@ -3015,7 +3126,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>97</v>
       </c>
@@ -3026,7 +3137,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
         <v>98</v>
       </c>
@@ -3037,7 +3148,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>99</v>
       </c>
@@ -3048,7 +3159,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>100</v>
       </c>
@@ -3078,9 +3189,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>7</v>
       </c>
